--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
   <si>
     <t>id</t>
   </si>
@@ -691,6 +691,18 @@
   </si>
   <si>
     <t>Закирдин</t>
+  </si>
+  <si>
+    <t>Саида</t>
+  </si>
+  <si>
+    <t>Хадижа</t>
+  </si>
+  <si>
+    <t>Зулхумар</t>
+  </si>
+  <si>
+    <t>Сезим</t>
   </si>
 </sst>
 </file>
@@ -721,7 +733,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,12 +749,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,9 +823,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -829,13 +832,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,7 +1152,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1166,7 +1169,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1183,7 +1186,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1200,7 +1203,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1217,7 +1220,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1234,7 +1237,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1251,7 +1254,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1266,7 +1269,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1281,7 +1284,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1298,7 +1301,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1315,7 +1318,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1332,7 +1335,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1347,7 +1350,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>127</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1360,7 +1363,7 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1377,7 +1380,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1392,7 +1395,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B17" s="8"/>
@@ -1407,7 +1410,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>131</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1424,7 +1427,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>132</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1441,7 +1444,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1458,7 +1461,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1473,7 +1476,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1490,7 +1493,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>136</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1507,7 +1510,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>137</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1522,7 +1525,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1539,7 +1542,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1554,13 +1557,15 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1569,7 +1574,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>141</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1584,13 +1589,15 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1599,7 +1606,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>143</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1614,7 +1621,7 @@
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1627,7 +1634,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>145</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1640,7 +1647,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>146</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1653,7 +1660,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1666,13 +1673,15 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
       </c>
@@ -1681,13 +1690,15 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>224</v>
+      </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1696,7 +1707,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -1710,7 +1721,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1727,7 +1738,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1744,7 +1755,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>150</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -1759,7 +1770,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -1776,7 +1787,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>152</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1793,7 +1804,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1806,7 +1817,7 @@
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>154</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1819,7 +1830,7 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>155</v>
       </c>
       <c r="B45" s="6"/>
@@ -1834,7 +1845,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>156</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1851,7 +1862,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>157</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1866,7 +1877,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>158</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -1883,7 +1894,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>159</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1898,7 +1909,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1911,7 +1922,7 @@
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>161</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1924,7 +1935,7 @@
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>162</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -1939,7 +1950,7 @@
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>163</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -1956,7 +1967,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B54" s="8"/>
@@ -1971,7 +1982,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>165</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1986,7 +1997,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>166</v>
       </c>
       <c r="B56" s="8"/>
@@ -2001,7 +2012,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>167</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2018,7 +2029,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2035,7 +2046,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>169</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2050,7 +2061,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>170</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2065,7 +2076,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -2082,7 +2093,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>172</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2097,7 +2108,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>173</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -2112,7 +2123,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>174</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -2125,7 +2136,7 @@
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="16" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2140,7 +2151,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>176</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2153,7 +2164,7 @@
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="16" t="s">
         <v>177</v>
       </c>
       <c r="B67" s="8"/>
@@ -2168,7 +2179,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="16" t="s">
         <v>178</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2183,10 +2194,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="18" t="s">
         <v>209</v>
       </c>
       <c r="C69" s="15"/>
@@ -2196,7 +2207,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>179</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -2206,12 +2217,12 @@
         <v>16</v>
       </c>
       <c r="D70" s="15"/>
-      <c r="E70" s="21">
+      <c r="E70" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>180</v>
       </c>
       <c r="B71" s="14" t="s">
@@ -2221,12 +2232,12 @@
         <v>85</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="E71" s="21">
+      <c r="E71" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>181</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -2236,12 +2247,12 @@
         <v>87</v>
       </c>
       <c r="D72" s="15"/>
-      <c r="E72" s="21">
+      <c r="E72" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="16" t="s">
         <v>182</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -2251,12 +2262,12 @@
         <v>89</v>
       </c>
       <c r="D73" s="15"/>
-      <c r="E73" s="21">
+      <c r="E73" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>183</v>
       </c>
       <c r="B74" s="14"/>
@@ -2264,12 +2275,12 @@
         <v>90</v>
       </c>
       <c r="D74" s="15"/>
-      <c r="E74" s="21">
+      <c r="E74" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B75" s="14"/>
@@ -2277,12 +2288,12 @@
         <v>91</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="21">
+      <c r="E75" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B76" s="14"/>
@@ -2290,12 +2301,12 @@
         <v>92</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="E76" s="21">
+      <c r="E76" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>186</v>
       </c>
       <c r="B77" s="14"/>
@@ -2303,12 +2314,12 @@
         <v>69</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="E77" s="21">
+      <c r="E77" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="16" t="s">
         <v>187</v>
       </c>
       <c r="B78" s="14"/>
@@ -2316,12 +2327,12 @@
         <v>93</v>
       </c>
       <c r="D78" s="15"/>
-      <c r="E78" s="21">
+      <c r="E78" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="16" t="s">
         <v>188</v>
       </c>
       <c r="B79" s="14"/>
@@ -2329,12 +2340,12 @@
         <v>94</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="21">
+      <c r="E79" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>189</v>
       </c>
       <c r="B80" s="14"/>
@@ -2342,12 +2353,12 @@
         <v>95</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="E80" s="21">
+      <c r="E80" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="16" t="s">
         <v>190</v>
       </c>
       <c r="B81" s="14"/>
@@ -2355,12 +2366,12 @@
         <v>96</v>
       </c>
       <c r="D81" s="15"/>
-      <c r="E81" s="21">
+      <c r="E81" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="16" t="s">
         <v>191</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -2370,12 +2381,12 @@
         <v>98</v>
       </c>
       <c r="D82" s="15"/>
-      <c r="E82" s="21">
+      <c r="E82" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B83" s="14" t="s">
@@ -2385,12 +2396,12 @@
         <v>14</v>
       </c>
       <c r="D83" s="15"/>
-      <c r="E83" s="21">
+      <c r="E83" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="16" t="s">
         <v>193</v>
       </c>
       <c r="B84" s="14"/>
@@ -2398,12 +2409,12 @@
         <v>100</v>
       </c>
       <c r="D84" s="15"/>
-      <c r="E84" s="21">
+      <c r="E84" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="16" t="s">
         <v>194</v>
       </c>
       <c r="B85" s="14"/>
@@ -2411,12 +2422,12 @@
         <v>101</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="21">
+      <c r="E85" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="17" t="s">
+      <c r="A86" s="16" t="s">
         <v>195</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -2426,12 +2437,12 @@
         <v>103</v>
       </c>
       <c r="D86" s="15"/>
-      <c r="E86" s="21">
+      <c r="E86" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
         <v>196</v>
       </c>
       <c r="B87" s="14"/>
@@ -2439,12 +2450,12 @@
         <v>104</v>
       </c>
       <c r="D87" s="15"/>
-      <c r="E87" s="21">
+      <c r="E87" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="16" t="s">
         <v>197</v>
       </c>
       <c r="B88" s="14"/>
@@ -2452,12 +2463,12 @@
         <v>105</v>
       </c>
       <c r="D88" s="15"/>
-      <c r="E88" s="21">
+      <c r="E88" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="16" t="s">
         <v>198</v>
       </c>
       <c r="B89" s="14"/>
@@ -2465,12 +2476,12 @@
         <v>106</v>
       </c>
       <c r="D89" s="15"/>
-      <c r="E89" s="21">
+      <c r="E89" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="16" t="s">
         <v>199</v>
       </c>
       <c r="B90" s="14"/>
@@ -2478,76 +2489,76 @@
         <v>107</v>
       </c>
       <c r="D90" s="15"/>
-      <c r="E90" s="21">
+      <c r="E90" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C91" s="16"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="21">
+      <c r="E91" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C92" s="16"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="15"/>
-      <c r="E92" s="21">
+      <c r="E92" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D93" s="15"/>
-      <c r="E93" s="21">
+      <c r="E93" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="16"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="21">
+      <c r="E94" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="17" t="s">
+      <c r="A95" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D95" s="15"/>
-      <c r="E95" s="21">
+      <c r="E95" s="19">
         <v>2</v>
       </c>
     </row>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="228">
   <si>
     <t>id</t>
   </si>
@@ -237,12 +237,6 @@
     <t>Тахмина</t>
   </si>
   <si>
-    <t>Олена Никитюк</t>
-  </si>
-  <si>
-    <t>Александр Атаматов</t>
-  </si>
-  <si>
     <t>Икрам</t>
   </si>
   <si>
@@ -703,6 +697,12 @@
   </si>
   <si>
     <t>Сезим</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Наргиза</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1148,12 +1148,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>24</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>26</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>28</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
@@ -1411,7 +1411,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>30</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>32</v>
@@ -1445,10 +1445,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>33</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>36</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>38</v>
@@ -1558,13 +1558,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
@@ -1590,13 +1590,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>34</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>34</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>42</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>43</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>44</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>45</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>41</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>46</v>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>47</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>50</v>
@@ -1771,13 +1771,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>51</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
@@ -1831,7 +1831,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="4" t="s">
@@ -1846,7 +1846,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>54</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>56</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>53</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="2" t="s">
@@ -1910,10 +1910,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
@@ -1936,13 +1936,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>53</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>53</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="4" t="s">
@@ -1983,12 +1983,14 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="6"/>
+      <c r="C55" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="D55" s="2" t="s">
         <v>58</v>
       </c>
@@ -1998,7 +2000,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="4" t="s">
@@ -2013,13 +2015,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>58</v>
@@ -2030,7 +2032,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>62</v>
@@ -2047,7 +2049,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>64</v>
@@ -2062,7 +2064,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>65</v>
@@ -2077,7 +2079,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>66</v>
@@ -2094,7 +2096,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>43</v>
@@ -2109,7 +2111,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>68</v>
@@ -2124,7 +2126,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>69</v>
@@ -2137,7 +2139,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>70</v>
@@ -2152,7 +2154,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>71</v>
@@ -2165,11 +2167,11 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>58</v>
@@ -2180,10 +2182,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="2" t="s">
@@ -2195,23 +2197,25 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
+      <c r="D69" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E69" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>16</v>
@@ -2223,13 +2227,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="19">
@@ -2238,13 +2242,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="19">
@@ -2253,13 +2257,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="19">
@@ -2268,11 +2272,11 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="19">
@@ -2281,11 +2285,11 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="19">
@@ -2294,11 +2298,11 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="19">
@@ -2307,7 +2311,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
@@ -2320,11 +2324,11 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="19">
@@ -2333,11 +2337,11 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="19">
@@ -2346,11 +2350,11 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="19">
@@ -2359,11 +2363,11 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="19">
@@ -2372,13 +2376,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="19">
@@ -2387,10 +2391,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>14</v>
@@ -2402,11 +2406,11 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="19">
@@ -2415,11 +2419,11 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="19">
@@ -2428,13 +2432,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="19">
@@ -2443,11 +2447,11 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="19">
@@ -2456,11 +2460,11 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B88" s="14"/>
       <c r="C88" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="19">
@@ -2469,11 +2473,11 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="19">
@@ -2482,11 +2486,11 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="19">
@@ -2495,10 +2499,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="15"/>
@@ -2508,10 +2512,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="15"/>
@@ -2521,13 +2525,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="19">
@@ -2536,10 +2540,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="15"/>
@@ -2549,13 +2553,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D95" s="15"/>
       <c r="E95" s="19">

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="231">
   <si>
     <t>id</t>
   </si>
@@ -703,13 +703,22 @@
   </si>
   <si>
     <t>Наргиза</t>
+  </si>
+  <si>
+    <t>Асель</t>
+  </si>
+  <si>
+    <t>404957e3-ece7-4ec2-860d-345efabc887d</t>
+  </si>
+  <si>
+    <t>3901600f-6369-46b4-bca9-2ed468b837b8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,8 +741,23 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,8 +776,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -776,11 +806,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,22 +866,50 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,15 +1190,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.54296875" style="9" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
@@ -1135,7 +1206,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1152,7 +1223,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1169,7 +1240,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1186,7 +1257,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1203,7 +1274,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1220,7 +1291,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1237,7 +1308,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1254,7 +1325,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1269,7 +1340,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1284,7 +1355,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1301,7 +1372,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1318,7 +1389,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1335,7 +1406,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1350,7 +1421,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1363,7 +1434,7 @@
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1380,7 +1451,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1395,7 +1466,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B17" s="8"/>
@@ -1410,7 +1481,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1427,7 +1498,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1444,7 +1515,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1461,7 +1532,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1476,7 +1547,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1493,7 +1564,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1510,7 +1581,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1525,7 +1596,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1542,7 +1613,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1557,7 +1628,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1574,7 +1645,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="19" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1589,7 +1660,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1606,7 +1677,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="19" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1621,7 +1692,7 @@
       <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1634,7 +1705,7 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="19" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1647,7 +1718,7 @@
       <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1660,7 +1731,7 @@
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="19" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1673,10 +1744,10 @@
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>203</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -1690,13 +1761,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="18" t="s">
         <v>222</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1721,7 +1792,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1738,7 +1809,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="19" t="s">
         <v>147</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1755,7 +1826,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -1770,7 +1841,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="19" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -1787,7 +1858,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -1804,7 +1875,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1817,7 +1888,7 @@
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1830,7 +1901,7 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="6"/>
@@ -1845,7 +1916,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1862,7 +1933,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1877,7 +1948,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -1894,7 +1965,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -1909,7 +1980,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1922,7 +1993,7 @@
       <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="19" t="s">
         <v>159</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -1935,7 +2006,7 @@
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -1950,7 +2021,7 @@
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="19" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -1967,7 +2038,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B54" s="8"/>
@@ -1982,7 +2053,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -1999,7 +2070,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B56" s="8"/>
@@ -2014,7 +2085,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2031,7 +2102,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2048,7 +2119,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2063,7 +2134,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2078,7 +2149,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="21" t="s">
         <v>169</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -2095,7 +2166,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2110,7 +2181,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="21" t="s">
         <v>171</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -2125,7 +2196,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -2138,7 +2209,7 @@
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2153,7 +2224,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="21" t="s">
         <v>174</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2166,7 +2237,7 @@
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="19" t="s">
         <v>175</v>
       </c>
       <c r="B67" s="8"/>
@@ -2181,7 +2252,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2196,373 +2267,399 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="27"/>
+      <c r="D69" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B72" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
+      <c r="D72" s="15"/>
+      <c r="E72" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B73" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
+      <c r="D73" s="15"/>
+      <c r="E73" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B74" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B75" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C75" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
+      <c r="D75" s="15"/>
+      <c r="E75" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76" s="15"/>
-      <c r="E76" s="19">
+      <c r="E76" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
-        <v>184</v>
+      <c r="A77" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D77" s="15"/>
-      <c r="E77" s="19">
+      <c r="E77" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
-        <v>185</v>
+      <c r="A78" s="19" t="s">
+        <v>183</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D78" s="15"/>
-      <c r="E78" s="19">
+      <c r="E78" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
-        <v>186</v>
+      <c r="A79" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D79" s="15"/>
-      <c r="E79" s="19">
+      <c r="E79" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
-        <v>187</v>
+      <c r="A80" s="19" t="s">
+        <v>185</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D80" s="15"/>
-      <c r="E80" s="19">
+      <c r="E80" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
-        <v>188</v>
+      <c r="A81" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
+      <c r="D83" s="15"/>
+      <c r="E83" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B84" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
+      <c r="D84" s="15"/>
+      <c r="E84" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B85" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
+      <c r="D85" s="15"/>
+      <c r="E85" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="B87" s="14"/>
       <c r="C87" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D87" s="15"/>
-      <c r="E87" s="19">
+      <c r="E87" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B88" s="14"/>
+      <c r="A88" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C88" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D88" s="15"/>
-      <c r="E88" s="19">
-        <v>1</v>
+      <c r="E88" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
-        <v>196</v>
+      <c r="A89" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D89" s="15"/>
-      <c r="E89" s="19">
+      <c r="E89" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
-        <v>197</v>
+      <c r="A90" s="19" t="s">
+        <v>195</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="16" t="s">
+      <c r="C93" s="16"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="16" t="s">
+      <c r="C94" s="16"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C95" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="16" t="s">
+      <c r="D95" s="15"/>
+      <c r="E95" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
+      <c r="C96" s="16"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C97" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="19">
+      <c r="D97" s="15"/>
+      <c r="E97" s="17">
         <v>2</v>
       </c>
     </row>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -904,10 +904,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1515,7 +1515,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1532,7 +1532,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B54" s="8"/>
@@ -2282,7 +2282,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
         <v>229</v>
       </c>
       <c r="B70" s="18"/>
@@ -2295,7 +2295,7 @@
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="31" t="s">
         <v>230</v>
       </c>
       <c r="B71" s="18"/>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="233">
   <si>
     <t>id</t>
   </si>
@@ -712,6 +712,12 @@
   </si>
   <si>
     <t>3901600f-6369-46b4-bca9-2ed468b837b8</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Насиба</t>
   </si>
 </sst>
 </file>
@@ -757,7 +763,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,12 +773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -839,9 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -879,10 +876,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,10 +901,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,24 +1189,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" style="8" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="13"/>
+    <col min="5" max="5" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1218,15 +1215,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1235,12 +1232,12 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1252,12 +1249,12 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1269,12 +1266,12 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>116</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1286,12 +1283,12 @@
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1303,12 +1300,12 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1320,12 +1317,12 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1335,12 +1332,12 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1350,29 +1347,29 @@
       <c r="D9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>122</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1384,12 +1381,12 @@
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1401,12 +1398,12 @@
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>124</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1416,12 +1413,12 @@
       <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1431,10 +1428,10 @@
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1446,12 +1443,12 @@
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1461,27 +1458,27 @@
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1493,12 +1490,12 @@
       <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1510,12 +1507,12 @@
       <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1527,12 +1524,12 @@
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1542,46 +1539,46 @@
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>209</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1591,29 +1588,29 @@
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1623,29 +1620,29 @@
       <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>225</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1655,12 +1652,12 @@
       <c r="D28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1672,27 +1669,27 @@
       <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>141</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>211</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1702,10 +1699,10 @@
       <c r="D31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1715,10 +1712,10 @@
       <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="18" t="s">
         <v>144</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1728,10 +1725,10 @@
       <c r="D33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="18" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1741,44 +1738,44 @@
       <c r="D34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>222</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>220</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -1787,12 +1784,12 @@
       <c r="D37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="18" t="s">
         <v>146</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -1804,29 +1801,29 @@
       <c r="D38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="18" t="s">
         <v>147</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>212</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -1836,46 +1833,46 @@
       <c r="D40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
         <v>149</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>216</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="18" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>214</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
         <v>151</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -1885,10 +1882,10 @@
       <c r="D43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1898,25 +1895,27 @@
       <c r="D44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="18" t="s">
         <v>154</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -1928,12 +1927,12 @@
       <c r="D46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>155</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -1943,12 +1942,12 @@
       <c r="D47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="18" t="s">
         <v>156</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -1960,27 +1959,27 @@
       <c r="D48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="18" t="s">
         <v>157</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>158</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1990,10 +1989,10 @@
       <c r="D50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="11"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>159</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2003,10 +2002,10 @@
       <c r="D51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="11"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>160</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2018,10 +2017,10 @@
       <c r="D52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2033,59 +2032,59 @@
       <c r="D53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>227</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2097,12 +2096,12 @@
       <c r="D57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2114,27 +2113,29 @@
       <c r="D58" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>168</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2144,12 +2145,12 @@
       <c r="D60" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>169</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -2161,12 +2162,12 @@
       <c r="D61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="20" t="s">
         <v>170</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2176,12 +2177,12 @@
       <c r="D62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -2191,12 +2192,12 @@
       <c r="D63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -2206,10 +2207,10 @@
       <c r="D64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -2219,12 +2220,12 @@
       <c r="D65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2234,25 +2235,25 @@
       <c r="D66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="11"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B67" s="8"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="18" t="s">
         <v>176</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -2262,404 +2263,404 @@
       <c r="D68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="28" t="s">
+      <c r="C69" s="26"/>
+      <c r="D69" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="16" t="s">
+      <c r="B70" s="17"/>
+      <c r="C70" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E70" s="11"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="16" t="s">
+      <c r="B71" s="17"/>
+      <c r="C71" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="17">
+      <c r="D72" s="14"/>
+      <c r="E72" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="17">
+      <c r="D73" s="14"/>
+      <c r="E73" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="17">
+      <c r="D74" s="14"/>
+      <c r="E74" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="17">
+      <c r="D75" s="14"/>
+      <c r="E75" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="17">
+      <c r="D76" s="14"/>
+      <c r="E76" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="15"/>
-      <c r="E77" s="17">
+      <c r="D77" s="14"/>
+      <c r="E77" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14" t="s">
+      <c r="B78" s="13"/>
+      <c r="C78" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="17">
+      <c r="D78" s="14"/>
+      <c r="E78" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="17">
+      <c r="D79" s="14"/>
+      <c r="E79" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14" t="s">
+      <c r="B80" s="13"/>
+      <c r="C80" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D80" s="15"/>
-      <c r="E80" s="17">
+      <c r="D80" s="14"/>
+      <c r="E80" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14" t="s">
+      <c r="B81" s="13"/>
+      <c r="C81" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="17">
+      <c r="D81" s="14"/>
+      <c r="E81" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14" t="s">
+      <c r="B82" s="13"/>
+      <c r="C82" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="17">
+      <c r="D82" s="14"/>
+      <c r="E82" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14" t="s">
+      <c r="B83" s="13"/>
+      <c r="C83" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="17">
+      <c r="D83" s="14"/>
+      <c r="E83" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="17">
+      <c r="D84" s="14"/>
+      <c r="E84" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="17">
+      <c r="D85" s="14"/>
+      <c r="E85" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14" t="s">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="17">
+      <c r="D86" s="14"/>
+      <c r="E86" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14" t="s">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="17">
+      <c r="D87" s="14"/>
+      <c r="E87" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="17">
+      <c r="D88" s="14"/>
+      <c r="E88" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14" t="s">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="17">
+      <c r="D89" s="14"/>
+      <c r="E89" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14" t="s">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="17">
+      <c r="D90" s="14"/>
+      <c r="E90" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14" t="s">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="15"/>
-      <c r="E91" s="17">
+      <c r="D91" s="14"/>
+      <c r="E91" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14" t="s">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="15"/>
-      <c r="E92" s="17">
+      <c r="D92" s="14"/>
+      <c r="E92" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="17">
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="17">
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="17">
+      <c r="D95" s="14"/>
+      <c r="E95" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="17">
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="15"/>
-      <c r="E97" s="17">
+      <c r="D97" s="14"/>
+      <c r="E97" s="16">
         <v>2</v>
       </c>
     </row>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -153,9 +153,6 @@
     <t>Айбек</t>
   </si>
   <si>
-    <t>Ольга Петровна</t>
-  </si>
-  <si>
     <t>Мухаммед Акчай</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>Зарина</t>
   </si>
   <si>
-    <t>Нурба</t>
-  </si>
-  <si>
     <t>Эрнис</t>
   </si>
   <si>
@@ -718,6 +712,12 @@
   </si>
   <si>
     <t>Насиба</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Нурбек</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1216,12 +1216,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>24</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>26</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>28</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -1479,7 +1479,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>30</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>32</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>33</v>
@@ -1544,14 +1544,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>133</v>
+      <c r="A22" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1561,14 +1561,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>134</v>
+      <c r="A23" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1578,8 +1578,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
-        <v>135</v>
+      <c r="A24" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>36</v>
@@ -1593,14 +1593,14 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>136</v>
+      <c r="A25" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1610,8 +1610,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
-        <v>137</v>
+      <c r="A26" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>38</v>
@@ -1625,14 +1625,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>138</v>
+      <c r="A27" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1642,11 +1642,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
-        <v>139</v>
+      <c r="A28" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
@@ -1657,14 +1657,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
-        <v>140</v>
+      <c r="A29" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>34</v>
@@ -1674,14 +1674,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
-        <v>141</v>
+      <c r="A30" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>34</v>
@@ -1689,8 +1689,8 @@
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
-        <v>142</v>
+      <c r="A31" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>42</v>
@@ -1702,8 +1702,8 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
-        <v>143</v>
+      <c r="A32" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>43</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
@@ -1729,10 +1729,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
@@ -1742,13 +1742,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>41</v>
@@ -1789,126 +1789,126 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="B43" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
-        <v>152</v>
+      <c r="A44" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
-        <v>153</v>
+      <c r="A45" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E45" s="10">
         <v>2</v>
@@ -1916,16 +1916,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="11">
         <v>2</v>
@@ -1933,46 +1933,46 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
-        <v>156</v>
+      <c r="A48" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E49" s="10">
         <v>2</v>
@@ -1980,57 +1980,57 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E53" s="10">
         <v>2</v>
@@ -2038,14 +2038,14 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E54" s="10">
         <v>1</v>
@@ -2053,16 +2053,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E55" s="10">
         <v>2</v>
@@ -2070,14 +2070,14 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E56" s="11">
         <v>1</v>
@@ -2085,16 +2085,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E57" s="10">
         <v>2</v>
@@ -2102,16 +2102,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E58" s="10">
         <v>2</v>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E59" s="10">
         <v>1</v>
@@ -2136,14 +2136,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E60" s="10">
         <v>1</v>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E61" s="10">
         <v>2</v>
@@ -2168,14 +2168,14 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E62" s="10">
         <v>1</v>
@@ -2183,14 +2183,14 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E63" s="11">
         <v>1</v>
@@ -2198,27 +2198,27 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E65" s="10">
         <v>1</v>
@@ -2226,27 +2226,27 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E67" s="10">
         <v>1</v>
@@ -2254,14 +2254,14 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E68" s="10">
         <v>1</v>
@@ -2269,14 +2269,14 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E69" s="28">
         <v>1</v>
@@ -2284,36 +2284,36 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>16</v>
@@ -2325,13 +2325,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="16">
@@ -2340,13 +2340,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="16">
@@ -2355,13 +2355,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="16">
@@ -2370,11 +2370,11 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16">
@@ -2383,11 +2383,11 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16">
@@ -2396,11 +2396,11 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="16">
@@ -2409,11 +2409,11 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="16">
@@ -2422,11 +2422,11 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="16">
@@ -2435,11 +2435,11 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="16">
@@ -2448,11 +2448,11 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="16">
@@ -2461,11 +2461,11 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="16">
@@ -2474,13 +2474,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="16">
@@ -2489,10 +2489,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>14</v>
@@ -2504,11 +2504,11 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="16">
@@ -2517,11 +2517,11 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="16">
@@ -2530,13 +2530,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16">
@@ -2545,11 +2545,11 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="16">
@@ -2558,11 +2558,11 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="16">
@@ -2571,11 +2571,11 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="16">
@@ -2584,11 +2584,11 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="16">
@@ -2597,10 +2597,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="16">
@@ -2638,10 +2638,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="14"/>
@@ -2651,13 +2651,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="16">

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Артур</t>
   </si>
   <si>
-    <t>Роза</t>
-  </si>
-  <si>
     <t xml:space="preserve">Агзам </t>
   </si>
   <si>
@@ -718,6 +715,27 @@
   </si>
   <si>
     <t>Нурбек</t>
+  </si>
+  <si>
+    <t>Розалия</t>
+  </si>
+  <si>
+    <t>Дильмурат</t>
+  </si>
+  <si>
+    <t>Данияль</t>
+  </si>
+  <si>
+    <t>Сафия</t>
+  </si>
+  <si>
+    <t>df1d51c6-f2f0-4c00-8366-6c61e96be0bf</t>
+  </si>
+  <si>
+    <t>0b572dac-1e0e-41df-b3c9-2ff82584e28e</t>
+  </si>
+  <si>
+    <t>75a821b3-d9b9-4f87-ac08-e6afbb1ba15f</t>
   </si>
 </sst>
 </file>
@@ -823,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,6 +924,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1216,12 +1240,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>111</v>
+      <c r="A2" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -1237,8 +1261,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>112</v>
+      <c r="A3" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1254,8 +1278,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>113</v>
+      <c r="A4" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -1271,8 +1295,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>114</v>
+      <c r="A5" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -1288,8 +1312,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>115</v>
+      <c r="A6" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1305,8 +1329,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>116</v>
+      <c r="A7" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -1322,8 +1346,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>117</v>
+      <c r="A8" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -1337,8 +1361,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>118</v>
+      <c r="A9" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
@@ -1352,8 +1376,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>119</v>
+      <c r="A10" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>19</v>
@@ -1369,8 +1393,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>120</v>
+      <c r="A11" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>20</v>
@@ -1386,8 +1410,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>121</v>
+      <c r="A12" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
@@ -1404,7 +1428,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>24</v>
@@ -1419,7 +1443,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>25</v>
@@ -1432,7 +1456,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>26</v>
@@ -1448,8 +1472,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>125</v>
+      <c r="A16" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>28</v>
@@ -1463,12 +1487,12 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>126</v>
+      <c r="A17" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -1479,13 +1503,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -1495,11 +1519,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>128</v>
+      <c r="A19" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>14</v>
@@ -1513,10 +1537,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>8</v>
@@ -1530,14 +1554,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -1545,16 +1569,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="10">
         <v>2</v>
@@ -1562,16 +1586,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="10">
         <v>2</v>
@@ -1579,14 +1603,14 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -1594,16 +1618,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="11">
         <v>2</v>
@@ -1611,14 +1635,14 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="10">
         <v>1</v>
@@ -1626,16 +1650,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="10">
         <v>2</v>
@@ -1643,14 +1667,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="10">
         <v>1</v>
@@ -1658,16 +1682,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="10">
         <v>1</v>
@@ -1675,100 +1699,100 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="C36" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" s="10">
         <v>2</v>
@@ -1776,13 +1800,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E37" s="10">
         <v>2</v>
@@ -1790,16 +1814,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E38" s="10">
         <v>2</v>
@@ -1807,16 +1831,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="10">
         <v>2</v>
@@ -1824,14 +1848,14 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
@@ -1839,16 +1863,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E41" s="10">
         <v>2</v>
@@ -1856,16 +1880,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="11">
         <v>2</v>
@@ -1873,42 +1897,42 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E45" s="10">
         <v>2</v>
@@ -1916,16 +1940,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="11">
         <v>2</v>
@@ -1933,14 +1957,14 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
@@ -1948,16 +1972,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="10">
         <v>2</v>
@@ -1965,14 +1989,14 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="10">
         <v>2</v>
@@ -1980,57 +2004,57 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" s="10">
         <v>2</v>
@@ -2038,14 +2062,14 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E54" s="10">
         <v>1</v>
@@ -2053,16 +2077,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="10">
         <v>2</v>
@@ -2070,14 +2094,14 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" s="11">
         <v>1</v>
@@ -2085,16 +2109,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="10">
         <v>2</v>
@@ -2102,16 +2126,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="10">
         <v>2</v>
@@ -2119,16 +2143,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59" s="10">
         <v>1</v>
@@ -2136,14 +2160,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" s="10">
         <v>1</v>
@@ -2151,16 +2175,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="10">
         <v>2</v>
@@ -2168,14 +2192,14 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" s="10">
         <v>1</v>
@@ -2183,14 +2207,14 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E63" s="11">
         <v>1</v>
@@ -2198,27 +2222,27 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65" s="10">
         <v>1</v>
@@ -2226,27 +2250,27 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E67" s="10">
         <v>1</v>
@@ -2254,14 +2278,14 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="10">
         <v>1</v>
@@ -2269,14 +2293,14 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C69" s="26"/>
       <c r="D69" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E69" s="28">
         <v>1</v>
@@ -2284,54 +2308,51 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="14"/>
-      <c r="E72" s="16">
-        <v>2</v>
-      </c>
+      <c r="A72" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="16">
@@ -2340,13 +2361,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="16">
@@ -2355,13 +2376,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="16">
@@ -2370,24 +2391,26 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="C76" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="22" t="s">
-        <v>180</v>
+      <c r="A77" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16">
@@ -2395,12 +2418,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="18" t="s">
-        <v>181</v>
+      <c r="A78" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="16">
@@ -2409,11 +2432,11 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="16">
@@ -2422,11 +2445,11 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="16">
@@ -2435,11 +2458,11 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="16">
@@ -2448,11 +2471,11 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="16">
@@ -2461,11 +2484,11 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="16">
@@ -2474,28 +2497,26 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>93</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="16">
@@ -2504,24 +2525,26 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="C86" s="13" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="16">
@@ -2530,39 +2553,39 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>98</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B89" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C89" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="16">
@@ -2571,11 +2594,11 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="16">
@@ -2584,11 +2607,11 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="16">
@@ -2597,12 +2620,12 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C93" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="D93" s="14"/>
       <c r="E93" s="16">
         <v>1</v>
@@ -2610,10 +2633,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
@@ -2623,46 +2646,83 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>107</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C95" s="15"/>
       <c r="D95" s="14"/>
       <c r="E95" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C96" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>110</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C97" s="15"/>
       <c r="D97" s="14"/>
       <c r="E97" s="16">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" s="14"/>
+      <c r="E100" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>75a821b3-d9b9-4f87-ac08-e6afbb1ba15f</t>
+  </si>
+  <si>
+    <t>Курманбек</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,11 +928,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1803,7 +1803,7 @@
         <v>217</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
@@ -2333,7 +2333,7 @@
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="31" t="s">
         <v>238</v>
       </c>
       <c r="B72" s="15" t="s">
@@ -2701,7 +2701,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="18" t="s">
         <v>236</v>
       </c>
       <c r="B99" s="17" t="s">
@@ -2712,7 +2712,7 @@
       <c r="E99" s="10"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="18" t="s">
         <v>237</v>
       </c>
       <c r="B100" s="17" t="s">

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -720,9 +720,6 @@
     <t>Розалия</t>
   </si>
   <si>
-    <t>Дильмурат</t>
-  </si>
-  <si>
     <t>Данияль</t>
   </si>
   <si>
@@ -739,13 +736,22 @@
   </si>
   <si>
     <t>Курманбек</t>
+  </si>
+  <si>
+    <t>Максат ака</t>
+  </si>
+  <si>
+    <t>Дильмурат ака</t>
+  </si>
+  <si>
+    <t>Бегайым</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +787,12 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -844,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,6 +942,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1803,7 +1818,7 @@
         <v>217</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
@@ -1853,7 +1868,9 @@
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="32" t="s">
+        <v>241</v>
+      </c>
       <c r="D40" s="2" t="s">
         <v>45</v>
       </c>
@@ -2334,7 +2351,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>71</v>
@@ -2473,7 +2490,9 @@
       <c r="A82" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B82" s="13"/>
+      <c r="B82" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="C82" s="13" t="s">
         <v>89</v>
       </c>
@@ -2702,10 +2721,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
@@ -2713,13 +2732,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B100" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>235</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="10"/>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t>Бегайым</t>
+  </si>
+  <si>
+    <t>Давлят</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -852,11 +855,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,6 +959,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2078,78 +2098,69 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="10">
-        <v>1</v>
+      <c r="A54" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E55" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="4" t="s">
-        <v>57</v>
+        <v>160</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="11">
-        <v>1</v>
+      <c r="E56" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>214</v>
+        <v>161</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="10">
-        <v>2</v>
+      <c r="E57" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>55</v>
@@ -2160,29 +2171,31 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>229</v>
+        <v>59</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E59" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>55</v>
       </c>
@@ -2192,115 +2205,115 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E61" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="10"/>
+      <c r="E64" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="10">
-        <v>1</v>
-      </c>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="10"/>
+      <c r="E66" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="4" t="s">
-        <v>223</v>
-      </c>
+      <c r="A67" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="3"/>
       <c r="D67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="10">
-        <v>1</v>
-      </c>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>55</v>
       </c>
@@ -2309,40 +2322,42 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B70" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="15" t="s">
-        <v>225</v>
-      </c>
+      <c r="C70" s="26"/>
       <c r="D70" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="10"/>
+      <c r="E70" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="30" t="s">
-        <v>227</v>
+      <c r="A71" s="29" t="s">
+        <v>226</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="15" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>55</v>
@@ -2350,11 +2365,12 @@
       <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>71</v>
+      <c r="A72" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>55</v>
@@ -2362,29 +2378,26 @@
       <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="16">
-        <v>2</v>
-      </c>
+      <c r="A73" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="16">
@@ -2393,13 +2406,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="16">
@@ -2408,13 +2421,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16">
@@ -2423,24 +2436,26 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="C77" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="22" t="s">
-        <v>179</v>
+      <c r="A78" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="16">
@@ -2448,12 +2463,12 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
-        <v>180</v>
+      <c r="A79" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="16">
@@ -2462,11 +2477,11 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="16">
@@ -2475,11 +2490,11 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="16">
@@ -2488,13 +2503,11 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>239</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="16">
@@ -2503,11 +2516,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="C83" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="16">
@@ -2516,11 +2531,11 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="16">
@@ -2529,28 +2544,26 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>92</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="16">
@@ -2559,24 +2572,26 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="C87" s="13" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16">
@@ -2585,39 +2600,39 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>97</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C90" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="16">
@@ -2626,11 +2641,11 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="16">
@@ -2639,11 +2654,11 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="16">
@@ -2652,12 +2667,12 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="D94" s="14"/>
       <c r="E94" s="16">
         <v>1</v>
@@ -2665,10 +2680,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="14"/>
@@ -2678,70 +2693,83 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>106</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C96" s="15"/>
       <c r="D96" s="14"/>
       <c r="E96" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>109</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C98" s="15"/>
       <c r="D98" s="14"/>
       <c r="E98" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C99" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="D99" s="14"/>
-      <c r="E99" s="10"/>
+      <c r="E99" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>234</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C100" s="14"/>
       <c r="D100" s="14"/>
       <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="14"/>
+      <c r="E101" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="244">
   <si>
     <t>id</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>Давлят</t>
+  </si>
+  <si>
+    <t>06474c24-f5cc-4b78-95fd-042395e869af</t>
   </si>
 </sst>
 </file>
@@ -960,11 +963,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2098,10 +2101,10 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>242</v>
       </c>
     </row>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="248">
   <si>
     <t>id</t>
   </si>
@@ -751,6 +751,18 @@
   </si>
   <si>
     <t>06474c24-f5cc-4b78-95fd-042395e869af</t>
+  </si>
+  <si>
+    <t>1d10d32c-8f42-4f2b-999e-bf139732b461</t>
+  </si>
+  <si>
+    <t>6fd66e7e-1795-461c-908c-d5c2a772fc66</t>
+  </si>
+  <si>
+    <t>Абликим ака</t>
+  </si>
+  <si>
+    <t>Нуриде</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -968,6 +980,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2774,6 +2789,22 @@
       <c r="D101" s="14"/>
       <c r="E101" s="10"/>
     </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="249">
   <si>
     <t>id</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>Нуриде</t>
+  </si>
+  <si>
+    <t>0c8aa7cb-8653-4761-9895-61cbccb1244a</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -984,6 +987,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2408,29 +2412,25 @@
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="14"/>
-      <c r="E74" s="16">
-        <v>2</v>
+      <c r="A74" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="16">
@@ -2439,13 +2439,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="16">
@@ -2454,13 +2454,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16">
@@ -2469,24 +2469,26 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="C78" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="22" t="s">
-        <v>179</v>
+      <c r="A79" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="16">
@@ -2494,12 +2496,12 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="18" t="s">
-        <v>180</v>
+      <c r="A80" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="16">
@@ -2508,11 +2510,11 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="16">
@@ -2521,11 +2523,11 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="16">
@@ -2534,13 +2536,11 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>239</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="16">
@@ -2549,11 +2549,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="C84" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="16">
@@ -2562,11 +2564,11 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="16">
@@ -2575,28 +2577,26 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>92</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="16">
@@ -2605,24 +2605,26 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B88" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="C88" s="13" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="16">
@@ -2631,39 +2633,39 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>97</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B91" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C91" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="16">
@@ -2672,11 +2674,11 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="16">
@@ -2685,11 +2687,11 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="16">
@@ -2698,12 +2700,12 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="D95" s="14"/>
       <c r="E95" s="16">
         <v>1</v>
@@ -2711,10 +2713,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="14"/>
@@ -2724,84 +2726,97 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>106</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C97" s="15"/>
       <c r="D97" s="14"/>
       <c r="E97" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C98" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="D98" s="14"/>
       <c r="E98" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>109</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C99" s="15"/>
       <c r="D99" s="14"/>
       <c r="E99" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C100" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="D100" s="14"/>
-      <c r="E100" s="10"/>
+      <c r="E100" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>234</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C101" s="14"/>
       <c r="D101" s="14"/>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="A102" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>247</v>
       </c>
     </row>

--- a/guests_exel.xlsx
+++ b/guests_exel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -766,6 +766,15 @@
   </si>
   <si>
     <t>0c8aa7cb-8653-4761-9895-61cbccb1244a</t>
+  </si>
+  <si>
+    <t>fdd62594-6c71-4099-a28d-4390dcdf2dd1</t>
+  </si>
+  <si>
+    <t>dcf29c5a-0860-4a78-8959-5f39ce07c449</t>
+  </si>
+  <si>
+    <t>Денис</t>
   </si>
 </sst>
 </file>
@@ -837,7 +846,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -873,17 +882,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -978,16 +976,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,69 +2118,68 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="15" t="s">
         <v>242</v>
       </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="14"/>
       <c r="D55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>224</v>
-      </c>
+      <c r="A56" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="10">
-        <v>2</v>
-      </c>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>214</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>55</v>
@@ -2193,76 +2190,76 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B59" s="7"/>
       <c r="C59" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="10">
-        <v>2</v>
+      <c r="E59" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>229</v>
+        <v>58</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E60" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E61" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E62" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
@@ -2274,53 +2271,57 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="11">
-        <v>1</v>
+      <c r="E64" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="2" t="s">
@@ -2329,13 +2330,13 @@
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="4" t="s">
-        <v>223</v>
-      </c>
+      <c r="A68" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3"/>
       <c r="D68" s="2" t="s">
         <v>55</v>
       </c>
@@ -2344,67 +2345,70 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="18" t="s">
-        <v>173</v>
+      <c r="A69" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="10">
-        <v>1</v>
-      </c>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B72" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="C72" s="26"/>
       <c r="D72" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E72" s="10"/>
+      <c r="E72" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>71</v>
+      <c r="A73" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>55</v>
@@ -2412,55 +2416,50 @@
       <c r="E73" s="10"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>41</v>
+      <c r="A74" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>55</v>
       </c>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="16">
-        <v>2</v>
-      </c>
+      <c r="A75" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="16">
-        <v>2</v>
+      <c r="A76" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="16">
@@ -2469,13 +2468,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="16">
@@ -2484,37 +2483,41 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" s="13"/>
+        <v>176</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="C79" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B80" s="13"/>
+      <c r="A80" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="C80" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="16">
@@ -2522,12 +2525,12 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="18" t="s">
-        <v>181</v>
+      <c r="A82" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="16">
@@ -2536,11 +2539,11 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="16">
@@ -2549,13 +2552,11 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>239</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="16">
@@ -2564,11 +2565,11 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="16">
@@ -2577,11 +2578,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B86" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>239</v>
+      </c>
       <c r="C86" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="16">
@@ -2590,82 +2593,80 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>92</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>94</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89" s="13"/>
+        <v>186</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B90" s="13"/>
+        <v>187</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" s="13" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>97</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="16">
@@ -2674,24 +2675,26 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="13"/>
+        <v>190</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C93" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="16">
@@ -2700,11 +2703,11 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="16">
@@ -2713,12 +2716,12 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" s="15"/>
+        <v>193</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="16">
         <v>1</v>
@@ -2726,12 +2729,12 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C97" s="15"/>
+        <v>194</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="16">
         <v>1</v>
@@ -2739,25 +2742,23 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>106</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C98" s="15"/>
       <c r="D98" s="14"/>
       <c r="E98" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="14"/>
@@ -2767,13 +2768,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="16">
@@ -2782,41 +2783,69 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B101" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C101" s="14"/>
+        <v>198</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="15"/>
       <c r="D101" s="14"/>
-      <c r="E101" s="10"/>
+      <c r="E101" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="14"/>
+      <c r="E102" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B104" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C104" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="10"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="35" t="s">
+      <c r="D104" s="14"/>
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B105" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="35" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>247</v>
       </c>
     </row>
